--- a/agent/ndom/benchmark/benchmark_graph.xlsx
+++ b/agent/ndom/benchmark/benchmark_graph.xlsx
@@ -1314,24 +1314,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Confronto tra numero medio di nodi esaminati (per Task)</a:t>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Confronto tra algoritmi di ricerca applicati a NDOM</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="it-IT"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>(confronto</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> con algoritmo NaiveDOMSearcher)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1376,7 +1364,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmarks!$C$1518</c:f>
+              <c:f>benchmarks!$C$1512</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,9 +1376,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1401,33 +1387,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>benchmarks!$D$1518:$K$1518</c:f>
+              <c:f>benchmarks!$D$1512:$K$1512</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>132.22546419098143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>86.625994694960212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>122.64456233421751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>131.70822281167108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>213.58885941644562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>265.49336870026525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>236.9655172413793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>94.204244031830243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E66A-473A-93E2-CFF4536EFF59}"/>
+              <c16:uniqueId val="{00000000-726B-400B-B02A-E46C54B1E6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,7 +1430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmarks!$C$1519</c:f>
+              <c:f>benchmarks!$C$1513</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1456,75 +1442,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>benchmarks!$D$1519:$K$1519</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-8.0716180371352664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.596816976127315</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.8992042440318357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.9124668435013064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-11.124668435013263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.3554376657825173</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6.777188328912473</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0450928381962967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E66A-473A-93E2-CFF4536EFF59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>benchmarks!$C$1520</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -1538,33 +1456,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>benchmarks!$D$1520:$K$1520</c:f>
+              <c:f>benchmarks!$D$1513:$K$1513</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>29.779840848806373</c:v>
+                  <c:v>124.15384615384616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.07957559681697</c:v>
+                  <c:v>73.029177718832898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.4297082228116693</c:v>
+                  <c:v>116.74535809018568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8620689655172384</c:v>
+                  <c:v>128.79575596816977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.100795755968164</c:v>
+                  <c:v>202.46419098143235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28.827586206896541</c:v>
+                  <c:v>257.13793103448273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.076923076923066</c:v>
+                  <c:v>230.18832891246683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.936339522546419</c:v>
+                  <c:v>85.159151193633946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,20 +1490,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E66A-473A-93E2-CFF4536EFF59}"/>
+              <c16:uniqueId val="{00000001-726B-400B-B02A-E46C54B1E6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmarks!$C$1521</c:f>
+              <c:f>benchmarks!$C$1514</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LCFS</c:v>
+                  <c:v>BFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1604,33 +1522,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>benchmarks!$D$1521:$K$1521</c:f>
+              <c:f>benchmarks!$D$1514:$K$1514</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14.885941644562337</c:v>
+                  <c:v>162.0053050397878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.140583554376661</c:v>
+                  <c:v>260.70557029177718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.039787798408497</c:v>
+                  <c:v>117.21485411140584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.827586206896569</c:v>
+                  <c:v>140.57029177718832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.787798408488072</c:v>
+                  <c:v>293.68965517241378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-18.283819628647223</c:v>
+                  <c:v>236.66578249336871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.5305039787798194</c:v>
+                  <c:v>200.88859416445624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.976127320954902</c:v>
+                  <c:v>131.14058355437666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1556,73 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E66A-473A-93E2-CFF4536EFF59}"/>
+              <c16:uniqueId val="{00000002-726B-400B-B02A-E46C54B1E6B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmarks!$C$1515</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmarks!$D$1515:$K$1515</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>147.11140583554376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.76657824933687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.68435013262601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.53580901856765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.37665782493369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247.20954907161803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>231.43501326259948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.18037135278514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-726B-400B-B02A-E46C54B1E6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1651,18 +1635,73 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="181662928"/>
-        <c:axId val="181660016"/>
+        <c:axId val="709190047"/>
+        <c:axId val="709192543"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181662928"/>
+        <c:axId val="709190047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Task</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1698,7 +1737,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181660016"/>
+        <c:crossAx val="709192543"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181660016"/>
+        <c:axId val="709192543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,8 +1765,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>numero medio di nodi esaminati</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1757,10 +1852,9 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181662928"/>
+        <c:crossAx val="709190047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2399,20 +2493,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1495</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1496</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1513</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1515</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2718,7 +2812,7 @@
   <dimension ref="A1:K1521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1496" workbookViewId="0">
-      <selection activeCell="C1518" sqref="C1518:K1521"/>
+      <selection activeCell="C1512" sqref="C1512:K1515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55543,35 +55637,35 @@
         <v>11</v>
       </c>
       <c r="D1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,D$2:D$1509)</f>
+        <f t="shared" ref="D1512:K1512" si="0">AVERAGEIF($C$2:$C$1509,$C1512,D$2:D$1509)</f>
         <v>132.22546419098143</v>
       </c>
       <c r="E1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,E$2:E$1509)</f>
+        <f t="shared" si="0"/>
         <v>86.625994694960212</v>
       </c>
       <c r="F1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,F$2:F$1509)</f>
+        <f t="shared" si="0"/>
         <v>122.64456233421751</v>
       </c>
       <c r="G1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,G$2:G$1509)</f>
+        <f t="shared" si="0"/>
         <v>131.70822281167108</v>
       </c>
       <c r="H1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,H$2:H$1509)</f>
+        <f t="shared" si="0"/>
         <v>213.58885941644562</v>
       </c>
       <c r="I1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,I$2:I$1509)</f>
+        <f t="shared" si="0"/>
         <v>265.49336870026525</v>
       </c>
       <c r="J1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,J$2:J$1509)</f>
+        <f t="shared" si="0"/>
         <v>236.9655172413793</v>
       </c>
       <c r="K1512">
-        <f>AVERAGEIF($C$2:$C$1509,$C1512,K$2:K$1509)</f>
+        <f t="shared" si="0"/>
         <v>94.204244031830243</v>
       </c>
     </row>
@@ -55580,35 +55674,35 @@
         <v>388</v>
       </c>
       <c r="D1513">
-        <f t="shared" ref="D1513:K1515" si="0">AVERAGEIF($C$2:$C$1509,$C1513,D$2:D$1509)</f>
+        <f t="shared" ref="D1513:K1515" si="1">AVERAGEIF($C$2:$C$1509,$C1513,D$2:D$1509)</f>
         <v>124.15384615384616</v>
       </c>
       <c r="E1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.029177718832898</v>
       </c>
       <c r="F1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116.74535809018568</v>
       </c>
       <c r="G1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128.79575596816977</v>
       </c>
       <c r="H1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202.46419098143235</v>
       </c>
       <c r="I1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>257.13793103448273</v>
       </c>
       <c r="J1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230.18832891246683</v>
       </c>
       <c r="K1513">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.159151193633946</v>
       </c>
     </row>
@@ -55617,35 +55711,35 @@
         <v>389</v>
       </c>
       <c r="D1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162.0053050397878</v>
       </c>
       <c r="E1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260.70557029177718</v>
       </c>
       <c r="F1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.21485411140584</v>
       </c>
       <c r="G1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140.57029177718832</v>
       </c>
       <c r="H1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>293.68965517241378</v>
       </c>
       <c r="I1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>236.66578249336871</v>
       </c>
       <c r="J1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200.88859416445624</v>
       </c>
       <c r="K1514">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131.14058355437666</v>
       </c>
     </row>
@@ -55654,35 +55748,35 @@
         <v>390</v>
       </c>
       <c r="D1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.11140583554376</v>
       </c>
       <c r="E1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.76657824933687</v>
       </c>
       <c r="F1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.68435013262601</v>
       </c>
       <c r="G1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156.53580901856765</v>
       </c>
       <c r="H1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>232.37665782493369</v>
       </c>
       <c r="I1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247.20954907161803</v>
       </c>
       <c r="J1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.43501326259948</v>
       </c>
       <c r="K1515">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.18037135278514</v>
       </c>
     </row>
@@ -55728,35 +55822,35 @@
         <v>388</v>
       </c>
       <c r="D1519">
-        <f t="shared" ref="D1519:D1521" si="1">D1513-$D$1512</f>
+        <f t="shared" ref="D1519:D1521" si="2">D1513-$D$1512</f>
         <v>-8.0716180371352664</v>
       </c>
       <c r="E1519">
-        <f t="shared" ref="E1519:E1521" si="2">E1513-$E$1512</f>
+        <f t="shared" ref="E1519:E1521" si="3">E1513-$E$1512</f>
         <v>-13.596816976127315</v>
       </c>
       <c r="F1519">
-        <f t="shared" ref="F1519:F1521" si="3">F1513-$F$1512</f>
+        <f t="shared" ref="F1519:F1521" si="4">F1513-$F$1512</f>
         <v>-5.8992042440318357</v>
       </c>
       <c r="G1519">
-        <f t="shared" ref="G1519:G1521" si="4">G1513-$G$1512</f>
+        <f t="shared" ref="G1519:G1521" si="5">G1513-$G$1512</f>
         <v>-2.9124668435013064</v>
       </c>
       <c r="H1519">
-        <f t="shared" ref="H1519:H1521" si="5">H1513-$H$1512</f>
+        <f t="shared" ref="H1519:H1521" si="6">H1513-$H$1512</f>
         <v>-11.124668435013263</v>
       </c>
       <c r="I1519">
-        <f t="shared" ref="I1519:I1521" si="6">I1513-$I$1512</f>
+        <f t="shared" ref="I1519:I1521" si="7">I1513-$I$1512</f>
         <v>-8.3554376657825173</v>
       </c>
       <c r="J1519">
-        <f t="shared" ref="J1519:J1521" si="7">J1513-$J$1512</f>
+        <f t="shared" ref="J1519:J1521" si="8">J1513-$J$1512</f>
         <v>-6.777188328912473</v>
       </c>
       <c r="K1519">
-        <f t="shared" ref="K1519:K1521" si="8">K1513-$K$1512</f>
+        <f t="shared" ref="K1519:K1521" si="9">K1513-$K$1512</f>
         <v>-9.0450928381962967</v>
       </c>
     </row>
@@ -55765,35 +55859,35 @@
         <v>389</v>
       </c>
       <c r="D1520">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.779840848806373</v>
       </c>
       <c r="E1520">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174.07957559681697</v>
       </c>
       <c r="F1520">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.4297082228116693</v>
       </c>
       <c r="G1520">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8620689655172384</v>
       </c>
       <c r="H1520">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.100795755968164</v>
       </c>
       <c r="I1520">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-28.827586206896541</v>
       </c>
       <c r="J1520">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-36.076923076923066</v>
       </c>
       <c r="K1520">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.936339522546419</v>
       </c>
     </row>
@@ -55802,35 +55896,35 @@
         <v>390</v>
       </c>
       <c r="D1521">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.885941644562337</v>
       </c>
       <c r="E1521">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.140583554376661</v>
       </c>
       <c r="F1521">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.039787798408497</v>
       </c>
       <c r="G1521">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.827586206896569</v>
       </c>
       <c r="H1521">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.787798408488072</v>
       </c>
       <c r="I1521">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-18.283819628647223</v>
       </c>
       <c r="J1521">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.5305039787798194</v>
       </c>
       <c r="K1521">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.976127320954902</v>
       </c>
     </row>
